--- a/ruv/data/inflation.xlsx
+++ b/ruv/data/inflation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holze\Documents\Temporal stability\temp_riskperception\ruv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68085CE1-FCD8-46B7-AF44-D1ED1132AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F609D8E-36FB-489F-B910-23CDA19553FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{FA7DEBEC-ACC2-4842-A574-BA0FBAE87051}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="114">
   <si>
     <t>110,2</t>
   </si>
@@ -45,54 +45,36 @@
     <t>6,8865 %</t>
   </si>
   <si>
-    <t>6,9 %</t>
-  </si>
-  <si>
     <t>103,1</t>
   </si>
   <si>
     <t>3,1000 %</t>
   </si>
   <si>
-    <t>3,1 %</t>
-  </si>
-  <si>
     <t>100,0</t>
   </si>
   <si>
     <t>0,5025 %</t>
   </si>
   <si>
-    <t>0,5 %</t>
-  </si>
-  <si>
     <t>99,5</t>
   </si>
   <si>
     <t>1,4271 %</t>
   </si>
   <si>
-    <t>1,4 %</t>
-  </si>
-  <si>
     <t>98,1</t>
   </si>
   <si>
     <t>1,7635 %</t>
   </si>
   <si>
-    <t>1,8 %</t>
-  </si>
-  <si>
     <t>96,4</t>
   </si>
   <si>
     <t>1,4737 %</t>
   </si>
   <si>
-    <t>1,5 %</t>
-  </si>
-  <si>
     <t>95,0</t>
   </si>
   <si>
@@ -111,9 +93,6 @@
     <t>0,9667 %</t>
   </si>
   <si>
-    <t>1,0 %</t>
-  </si>
-  <si>
     <t>93,1</t>
   </si>
   <si>
@@ -126,18 +105,12 @@
     <t>1,8889 %</t>
   </si>
   <si>
-    <t>1,9 %</t>
-  </si>
-  <si>
     <t>90,0</t>
   </si>
   <si>
     <t>2,1566 %</t>
   </si>
   <si>
-    <t>2,2 %</t>
-  </si>
-  <si>
     <t>88,1</t>
   </si>
   <si>
@@ -150,36 +123,24 @@
     <t>0,3452 %</t>
   </si>
   <si>
-    <t>0,3 %</t>
-  </si>
-  <si>
     <t>86,9</t>
   </si>
   <si>
     <t>2,5974 %</t>
   </si>
   <si>
-    <t>2,6 %</t>
-  </si>
-  <si>
     <t>84,7</t>
   </si>
   <si>
     <t>2,2947 %</t>
   </si>
   <si>
-    <t>2,3 %</t>
-  </si>
-  <si>
     <t>82,8</t>
   </si>
   <si>
     <t>1,5951 %</t>
   </si>
   <si>
-    <t>1,6 %</t>
-  </si>
-  <si>
     <t>81,5</t>
   </si>
   <si>
@@ -210,36 +171,24 @@
     <t>1,9868 %</t>
   </si>
   <si>
-    <t>2,0 %</t>
-  </si>
-  <si>
     <t>75,5</t>
   </si>
   <si>
     <t>1,3423 %</t>
   </si>
   <si>
-    <t>1,3 %</t>
-  </si>
-  <si>
     <t>74,5</t>
   </si>
   <si>
     <t>0,6757 %</t>
   </si>
   <si>
-    <t>0,7 %</t>
-  </si>
-  <si>
     <t>74,0</t>
   </si>
   <si>
     <t>0,8174 %</t>
   </si>
   <si>
-    <t>0,8 %</t>
-  </si>
-  <si>
     <t>73,4</t>
   </si>
   <si>
@@ -264,25 +213,16 @@
     <t>2,6510 %</t>
   </si>
   <si>
-    <t>2,7 %</t>
-  </si>
-  <si>
     <t>67,9</t>
   </si>
   <si>
     <t>4,4615 %</t>
   </si>
   <si>
-    <t>4,5 %</t>
-  </si>
-  <si>
     <t>65,0</t>
   </si>
   <si>
     <t>5,0081 %</t>
-  </si>
-  <si>
-    <t>5,0 %</t>
   </si>
   <si>
     <t>wave</t>
@@ -855,7 +795,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -868,27 +808,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4">
         <v>2022</v>
@@ -899,8 +839,8 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
+      <c r="E2" s="4">
+        <v>6.9</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>0</v>
@@ -908,7 +848,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5">
         <v>2021</v>
@@ -917,18 +857,18 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4">
         <v>2020</v>
@@ -937,18 +877,18 @@
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5">
         <v>2019</v>
@@ -957,18 +897,18 @@
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4">
         <v>2018</v>
@@ -977,18 +917,18 @@
         <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5">
         <v>2017</v>
@@ -997,18 +937,18 @@
         <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4">
         <v>2016</v>
@@ -1017,18 +957,18 @@
         <v>95</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5">
         <v>2015</v>
@@ -1037,18 +977,18 @@
         <v>95</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4">
         <v>2014</v>
@@ -1057,18 +997,18 @@
         <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5">
         <v>2013</v>
@@ -1077,18 +1017,18 @@
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4">
         <v>2012</v>
@@ -1097,18 +1037,18 @@
         <v>92</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5">
         <v>2011</v>
@@ -1117,18 +1057,18 @@
         <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4">
         <v>2010</v>
@@ -1137,18 +1077,18 @@
         <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B15" s="5">
         <v>2009</v>
@@ -1157,18 +1097,18 @@
         <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4">
         <v>2008</v>
@@ -1177,18 +1117,18 @@
         <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B17" s="5">
         <v>2007</v>
@@ -1197,18 +1137,18 @@
         <v>85</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4">
         <v>2006</v>
@@ -1217,18 +1157,18 @@
         <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5">
         <v>2005</v>
@@ -1237,18 +1177,18 @@
         <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.6</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4">
         <v>2004</v>
@@ -1257,18 +1197,18 @@
         <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.6</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5">
         <v>2003</v>
@@ -1277,18 +1217,18 @@
         <v>79</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4">
         <v>2002</v>
@@ -1297,18 +1237,18 @@
         <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.4</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5">
         <v>2001</v>
@@ -1317,18 +1257,18 @@
         <v>77</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4">
         <v>2000</v>
@@ -1337,18 +1277,18 @@
         <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B25" s="5">
         <v>1999</v>
@@ -1357,18 +1297,18 @@
         <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B26" s="4">
         <v>1998</v>
@@ -1377,18 +1317,18 @@
         <v>74</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B27" s="5">
         <v>1997</v>
@@ -1397,18 +1337,18 @@
         <v>73</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.9</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4">
         <v>1996</v>
@@ -1417,18 +1357,18 @@
         <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.4</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5">
         <v>1995</v>
@@ -1437,18 +1377,18 @@
         <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B30" s="4">
         <v>1994</v>
@@ -1457,18 +1397,18 @@
         <v>70</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2.7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5">
         <v>1993</v>
@@ -1477,18 +1417,18 @@
         <v>68</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4.5</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4">
         <v>1992</v>
@@ -1497,13 +1437,13 @@
         <v>65</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -1534,16 +1474,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1551,7 +1491,7 @@
         <v>2004</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C2" s="7">
         <v>79.400000000000006</v>
@@ -1565,7 +1505,7 @@
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C3" s="7">
         <v>79.599999999999994</v>
@@ -1579,7 +1519,7 @@
         <v>2004</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C4" s="7">
         <v>79.900000000000006</v>
@@ -1593,7 +1533,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C5" s="7">
         <v>80.099999999999994</v>
@@ -1607,7 +1547,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C6" s="7">
         <v>80.3</v>
@@ -1621,7 +1561,7 @@
         <v>2004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C7" s="7">
         <v>80.3</v>
@@ -1635,7 +1575,7 @@
         <v>2004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7">
         <v>80.400000000000006</v>
@@ -1649,7 +1589,7 @@
         <v>2004</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7">
         <v>80.5</v>
@@ -1663,7 +1603,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C10" s="7">
         <v>80.3</v>
@@ -1677,7 +1617,7 @@
         <v>2004</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C11" s="7">
         <v>80.400000000000006</v>
@@ -1691,7 +1631,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C12" s="7">
         <v>80.3</v>
@@ -1705,7 +1645,7 @@
         <v>2004</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C13" s="7">
         <v>81.2</v>
@@ -1719,7 +1659,7 @@
         <v>2005</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7">
         <v>80.599999999999994</v>
@@ -1733,7 +1673,7 @@
         <v>2005</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7">
         <v>80.900000000000006</v>
@@ -1747,7 +1687,7 @@
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7">
         <v>81.3</v>
@@ -1761,7 +1701,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C17" s="7">
         <v>81</v>
@@ -1775,7 +1715,7 @@
         <v>2005</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C18" s="7">
         <v>81.2</v>
@@ -1789,7 +1729,7 @@
         <v>2005</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C19" s="7">
         <v>81.3</v>
@@ -1803,7 +1743,7 @@
         <v>2005</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C20" s="7">
         <v>81.7</v>
@@ -1817,7 +1757,7 @@
         <v>2005</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C21" s="7">
         <v>81.8</v>
@@ -1831,7 +1771,7 @@
         <v>2005</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C22" s="7">
         <v>81.900000000000006</v>
@@ -1845,7 +1785,7 @@
         <v>2005</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7">
         <v>81.900000000000006</v>
@@ -1859,7 +1799,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C24" s="7">
         <v>81.7</v>
@@ -1873,7 +1813,7 @@
         <v>2005</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C25" s="7">
         <v>82.3</v>
@@ -1887,7 +1827,7 @@
         <v>2006</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7">
         <v>82</v>
@@ -1901,7 +1841,7 @@
         <v>2006</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7">
         <v>82.4</v>
@@ -1915,7 +1855,7 @@
         <v>2006</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C28" s="7">
         <v>82.4</v>
@@ -1929,7 +1869,7 @@
         <v>2006</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7">
         <v>82.7</v>
@@ -1943,7 +1883,7 @@
         <v>2006</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C30" s="7">
         <v>82.7</v>
@@ -1957,7 +1897,7 @@
         <v>2006</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7">
         <v>82.9</v>
@@ -1971,7 +1911,7 @@
         <v>2006</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C32" s="7">
         <v>83.2</v>
@@ -1985,7 +1925,7 @@
         <v>2006</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C33" s="7">
         <v>83</v>
@@ -1999,7 +1939,7 @@
         <v>2006</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C34" s="7">
         <v>82.7</v>
@@ -2013,7 +1953,7 @@
         <v>2006</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C35" s="7">
         <v>82.8</v>
@@ -2027,7 +1967,7 @@
         <v>2006</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C36" s="7">
         <v>82.8</v>
@@ -2041,7 +1981,7 @@
         <v>2006</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C37" s="7">
         <v>83.5</v>
@@ -2055,7 +1995,7 @@
         <v>2007</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C38" s="7">
         <v>83.5</v>
@@ -2069,7 +2009,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C39" s="7">
         <v>83.8</v>
@@ -2083,7 +2023,7 @@
         <v>2007</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C40" s="7">
         <v>84</v>
@@ -2097,7 +2037,7 @@
         <v>2007</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C41" s="7">
         <v>84.4</v>
@@ -2111,7 +2051,7 @@
         <v>2007</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C42" s="7">
         <v>84.4</v>
@@ -2125,7 +2065,7 @@
         <v>2007</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C43" s="7">
         <v>84.5</v>
@@ -2139,7 +2079,7 @@
         <v>2007</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C44" s="7">
         <v>84.9</v>
@@ -2153,7 +2093,7 @@
         <v>2007</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C45" s="7">
         <v>84.8</v>
@@ -2167,7 +2107,7 @@
         <v>2007</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C46" s="7">
         <v>84.9</v>
@@ -2181,7 +2121,7 @@
         <v>2007</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C47" s="7">
         <v>85.1</v>
@@ -2195,7 +2135,7 @@
         <v>2007</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C48" s="7">
         <v>85.6</v>
@@ -2209,7 +2149,7 @@
         <v>2007</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C49" s="7">
         <v>86.1</v>
@@ -2223,7 +2163,7 @@
         <v>2008</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C50" s="7">
         <v>85.8</v>
@@ -2237,7 +2177,7 @@
         <v>2008</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C51" s="7">
         <v>86.2</v>
@@ -2251,7 +2191,7 @@
         <v>2008</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C52" s="7">
         <v>86.6</v>
@@ -2265,7 +2205,7 @@
         <v>2008</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C53" s="7">
         <v>86.4</v>
@@ -2279,7 +2219,7 @@
         <v>2008</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C54" s="7">
         <v>86.9</v>
@@ -2293,7 +2233,7 @@
         <v>2008</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C55" s="7">
         <v>87.2</v>
@@ -2307,7 +2247,7 @@
         <v>2008</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C56" s="7">
         <v>87.7</v>
@@ -2321,7 +2261,7 @@
         <v>2008</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C57" s="7">
         <v>87.4</v>
@@ -2335,7 +2275,7 @@
         <v>2008</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C58" s="7">
         <v>87.4</v>
@@ -2349,7 +2289,7 @@
         <v>2008</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C59" s="7">
         <v>87.2</v>
@@ -2363,7 +2303,7 @@
         <v>2008</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C60" s="7">
         <v>86.8</v>
@@ -2377,7 +2317,7 @@
         <v>2008</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C61" s="7">
         <v>87</v>
@@ -2391,7 +2331,7 @@
         <v>2009</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C62" s="7">
         <v>86.6</v>
@@ -2405,7 +2345,7 @@
         <v>2009</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C63" s="7">
         <v>87.1</v>
@@ -2419,7 +2359,7 @@
         <v>2009</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C64" s="7">
         <v>87</v>
@@ -2433,7 +2373,7 @@
         <v>2009</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C65" s="7">
         <v>87</v>
@@ -2447,7 +2387,7 @@
         <v>2009</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C66" s="7">
         <v>87</v>
@@ -2461,7 +2401,7 @@
         <v>2009</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C67" s="7">
         <v>87.3</v>
@@ -2475,7 +2415,7 @@
         <v>2009</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C68" s="7">
         <v>87.3</v>
@@ -2489,7 +2429,7 @@
         <v>2009</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C69" s="7">
         <v>87.5</v>
@@ -2503,7 +2443,7 @@
         <v>2009</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C70" s="7">
         <v>87.1</v>
@@ -2517,7 +2457,7 @@
         <v>2009</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C71" s="7">
         <v>87.2</v>
@@ -2531,7 +2471,7 @@
         <v>2009</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C72" s="7">
         <v>87.1</v>
@@ -2545,7 +2485,7 @@
         <v>2009</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C73" s="7">
         <v>87.8</v>
@@ -2559,7 +2499,7 @@
         <v>2010</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7">
         <v>87.3</v>
@@ -2573,7 +2513,7 @@
         <v>2010</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C75" s="7">
         <v>87.6</v>
@@ -2587,7 +2527,7 @@
         <v>2010</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7">
         <v>88.1</v>
@@ -2601,7 +2541,7 @@
         <v>2010</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C77" s="7">
         <v>88.1</v>
@@ -2615,7 +2555,7 @@
         <v>2010</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C78" s="7">
         <v>88.1</v>
@@ -2629,7 +2569,7 @@
         <v>2010</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C79" s="7">
         <v>88.1</v>
@@ -2643,7 +2583,7 @@
         <v>2010</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C80" s="7">
         <v>88.2</v>
@@ -2657,7 +2597,7 @@
         <v>2010</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C81" s="7">
         <v>88.3</v>
@@ -2671,7 +2611,7 @@
         <v>2010</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C82" s="7">
         <v>88.2</v>
@@ -2685,7 +2625,7 @@
         <v>2010</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C83" s="7">
         <v>88.3</v>
@@ -2699,7 +2639,7 @@
         <v>2010</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C84" s="7">
         <v>88.4</v>
@@ -2713,7 +2653,7 @@
         <v>2010</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C85" s="7">
         <v>89</v>
@@ -2727,7 +2667,7 @@
         <v>2011</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C86" s="7">
         <v>88.7</v>
@@ -2741,7 +2681,7 @@
         <v>2011</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C87" s="7">
         <v>89.3</v>
@@ -2755,7 +2695,7 @@
         <v>2011</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C88" s="7">
         <v>89.8</v>
@@ -2769,7 +2709,7 @@
         <v>2011</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C89" s="7">
         <v>89.8</v>
@@ -2783,7 +2723,7 @@
         <v>2011</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C90" s="7">
         <v>89.8</v>
@@ -2797,7 +2737,7 @@
         <v>2011</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C91" s="7">
         <v>89.9</v>
@@ -2811,7 +2751,7 @@
         <v>2011</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C92" s="7">
         <v>90.1</v>
@@ -2825,7 +2765,7 @@
         <v>2011</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C93" s="7">
         <v>90.2</v>
@@ -2839,7 +2779,7 @@
         <v>2011</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C94" s="7">
         <v>90.3</v>
@@ -2853,7 +2793,7 @@
         <v>2011</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C95" s="7">
         <v>90.4</v>
@@ -2867,7 +2807,7 @@
         <v>2011</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C96" s="7">
         <v>90.5</v>
@@ -2881,7 +2821,7 @@
         <v>2011</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C97" s="7">
         <v>90.7</v>
@@ -2895,7 +2835,7 @@
         <v>2012</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C98" s="7">
         <v>90.6</v>
@@ -2909,7 +2849,7 @@
         <v>2012</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C99" s="7">
         <v>91.2</v>
@@ -2923,7 +2863,7 @@
         <v>2012</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C100" s="7">
         <v>91.7</v>
@@ -2937,7 +2877,7 @@
         <v>2012</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C101" s="7">
         <v>91.6</v>
@@ -2951,7 +2891,7 @@
         <v>2012</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C102" s="7">
         <v>91.5</v>
@@ -2965,7 +2905,7 @@
         <v>2012</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C103" s="7">
         <v>91.4</v>
@@ -2979,7 +2919,7 @@
         <v>2012</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C104" s="7">
         <v>91.7</v>
@@ -2993,7 +2933,7 @@
         <v>2012</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C105" s="7">
         <v>92.1</v>
@@ -3007,7 +2947,7 @@
         <v>2012</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C106" s="7">
         <v>92.2</v>
@@ -3021,7 +2961,7 @@
         <v>2012</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C107" s="7">
         <v>92.2</v>
@@ -3035,7 +2975,7 @@
         <v>2012</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C108" s="7">
         <v>92.2</v>
@@ -3049,7 +2989,7 @@
         <v>2012</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C109" s="7">
         <v>92.5</v>
@@ -3063,7 +3003,7 @@
         <v>2013</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C110" s="7">
         <v>92.1</v>
@@ -3077,7 +3017,7 @@
         <v>2013</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C111" s="7">
         <v>92.6</v>
@@ -3091,7 +3031,7 @@
         <v>2013</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C112" s="7">
         <v>93</v>
@@ -3105,7 +3045,7 @@
         <v>2013</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C113" s="7">
         <v>92.6</v>
@@ -3119,7 +3059,7 @@
         <v>2013</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C114" s="7">
         <v>93</v>
@@ -3133,7 +3073,7 @@
         <v>2013</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C115" s="7">
         <v>93.1</v>
@@ -3147,7 +3087,7 @@
         <v>2013</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C116" s="7">
         <v>93.5</v>
@@ -3161,7 +3101,7 @@
         <v>2013</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C117" s="7">
         <v>93.5</v>
@@ -3175,7 +3115,7 @@
         <v>2013</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C118" s="7">
         <v>93.5</v>
@@ -3189,7 +3129,7 @@
         <v>2013</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C119" s="7">
         <v>93.3</v>
@@ -3203,7 +3143,7 @@
         <v>2013</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C120" s="7">
         <v>93.5</v>
@@ -3217,7 +3157,7 @@
         <v>2013</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C121" s="7">
         <v>93.9</v>
@@ -3231,7 +3171,7 @@
         <v>2014</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C122" s="7">
         <v>93.3</v>
@@ -3245,7 +3185,7 @@
         <v>2014</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C123" s="7">
         <v>93.8</v>
@@ -3259,7 +3199,7 @@
         <v>2014</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C124" s="7">
         <v>94</v>
@@ -3273,7 +3213,7 @@
         <v>2014</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C125" s="7">
         <v>93.9</v>
@@ -3287,7 +3227,7 @@
         <v>2014</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C126" s="7">
         <v>93.8</v>
@@ -3301,7 +3241,7 @@
         <v>2014</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C127" s="7">
         <v>94</v>
@@ -3315,7 +3255,7 @@
         <v>2014</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C128" s="7">
         <v>94.3</v>
@@ -3329,7 +3269,7 @@
         <v>2014</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C129" s="7">
         <v>94.3</v>
@@ -3343,7 +3283,7 @@
         <v>2014</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C130" s="7">
         <v>94.3</v>
@@ -3357,7 +3297,7 @@
         <v>2014</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C131" s="7">
         <v>94.1</v>
@@ -3371,7 +3311,7 @@
         <v>2014</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C132" s="7">
         <v>94.1</v>
@@ -3385,7 +3325,7 @@
         <v>2014</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C133" s="7">
         <v>94</v>
@@ -3399,7 +3339,7 @@
         <v>2015</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C134" s="7">
         <v>93.1</v>
@@ -3413,7 +3353,7 @@
         <v>2015</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C135" s="7">
         <v>93.8</v>
@@ -3427,7 +3367,7 @@
         <v>2015</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C136" s="7">
         <v>94.3</v>
@@ -3441,7 +3381,7 @@
         <v>2015</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C137" s="7">
         <v>94.7</v>
@@ -3455,7 +3395,7 @@
         <v>2015</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C138" s="7">
         <v>94.9</v>
@@ -3469,7 +3409,7 @@
         <v>2015</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C139" s="7">
         <v>94.9</v>
@@ -3483,7 +3423,7 @@
         <v>2015</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C140" s="7">
         <v>95.1</v>
@@ -3497,7 +3437,7 @@
         <v>2015</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C141" s="7">
         <v>95</v>
@@ -3511,7 +3451,7 @@
         <v>2015</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C142" s="7">
         <v>94.9</v>
@@ -3525,7 +3465,7 @@
         <v>2015</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C143" s="7">
         <v>94.9</v>
@@ -3539,7 +3479,7 @@
         <v>2015</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C144" s="7">
         <v>94.3</v>
@@ -3553,7 +3493,7 @@
         <v>2015</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C145" s="7">
         <v>94.3</v>
@@ -3567,7 +3507,7 @@
         <v>2016</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C146" s="7">
         <v>93.6</v>
@@ -3581,7 +3521,7 @@
         <v>2016</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C147" s="7">
         <v>93.9</v>
@@ -3595,7 +3535,7 @@
         <v>2016</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C148" s="7">
         <v>94.5</v>
@@ -3609,7 +3549,7 @@
         <v>2016</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C149" s="7">
         <v>94.6</v>
@@ -3623,7 +3563,7 @@
         <v>2016</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C150" s="7">
         <v>95.1</v>
@@ -3637,7 +3577,7 @@
         <v>2016</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C151" s="7">
         <v>95.2</v>
@@ -3651,7 +3591,7 @@
         <v>2016</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C152" s="7">
         <v>95.5</v>
@@ -3665,7 +3605,7 @@
         <v>2016</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C153" s="7">
         <v>95.4</v>
@@ -3679,7 +3619,7 @@
         <v>2016</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C154" s="7">
         <v>95.5</v>
@@ -3693,7 +3633,7 @@
         <v>2016</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C155" s="7">
         <v>95.6</v>
@@ -3707,7 +3647,7 @@
         <v>2016</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C156" s="7">
         <v>95</v>
@@ -3721,7 +3661,7 @@
         <v>2016</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C157" s="7">
         <v>95.6</v>
@@ -3735,7 +3675,7 @@
         <v>2017</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C158" s="7">
         <v>95.1</v>
@@ -3749,7 +3689,7 @@
         <v>2017</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C159" s="7">
         <v>95.6</v>
@@ -3763,7 +3703,7 @@
         <v>2017</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C160" s="7">
         <v>95.8</v>
@@ -3777,7 +3717,7 @@
         <v>2017</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C161" s="7">
         <v>96.2</v>
@@ -3791,7 +3731,7 @@
         <v>2017</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C162" s="7">
         <v>96.2</v>
@@ -3805,7 +3745,7 @@
         <v>2017</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C163" s="7">
         <v>96.5</v>
@@ -3819,7 +3759,7 @@
         <v>2017</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C164" s="7">
         <v>96.9</v>
@@ -3833,7 +3773,7 @@
         <v>2017</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C165" s="7">
         <v>97</v>
@@ -3847,7 +3787,7 @@
         <v>2017</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C166" s="7">
         <v>97</v>
@@ -3861,7 +3801,7 @@
         <v>2017</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C167" s="7">
         <v>96.9</v>
@@ -3875,7 +3815,7 @@
         <v>2017</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C168" s="7">
         <v>96.5</v>
@@ -3889,7 +3829,7 @@
         <v>2017</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C169" s="7">
         <v>96.9</v>
@@ -3903,7 +3843,7 @@
         <v>2018</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C170" s="7">
         <v>96.4</v>
@@ -3917,7 +3857,7 @@
         <v>2018</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C171" s="7">
         <v>96.7</v>
@@ -3931,7 +3871,7 @@
         <v>2018</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C172" s="7">
         <v>97.2</v>
@@ -3945,7 +3885,7 @@
         <v>2018</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C173" s="7">
         <v>97.5</v>
@@ -3959,7 +3899,7 @@
         <v>2018</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C174" s="7">
         <v>98.2</v>
@@ -3973,7 +3913,7 @@
         <v>2018</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C175" s="7">
         <v>98.3</v>
@@ -3987,7 +3927,7 @@
         <v>2018</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C176" s="7">
         <v>98.7</v>
@@ -4001,7 +3941,7 @@
         <v>2018</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C177" s="7">
         <v>98.8</v>
@@ -4015,7 +3955,7 @@
         <v>2018</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C178" s="7">
         <v>99</v>
@@ -4029,7 +3969,7 @@
         <v>2018</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C179" s="7">
         <v>99.1</v>
@@ -4043,7 +3983,7 @@
         <v>2018</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C180" s="7">
         <v>98.5</v>
@@ -4057,7 +3997,7 @@
         <v>2018</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C181" s="7">
         <v>98.5</v>
@@ -4071,7 +4011,7 @@
         <v>2019</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C182" s="7">
         <v>97.7</v>
@@ -4085,7 +4025,7 @@
         <v>2019</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C183" s="7">
         <v>98.1</v>
@@ -4099,7 +4039,7 @@
         <v>2019</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C184" s="7">
         <v>98.5</v>
@@ -4113,7 +4053,7 @@
         <v>2019</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C185" s="7">
         <v>99.4</v>
@@ -4127,7 +4067,7 @@
         <v>2019</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C186" s="7">
         <v>99.6</v>
@@ -4141,7 +4081,7 @@
         <v>2019</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C187" s="7">
         <v>99.9</v>
@@ -4155,7 +4095,7 @@
         <v>2019</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C188" s="7">
         <v>100.3</v>
@@ -4169,7 +4109,7 @@
         <v>2019</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C189" s="7">
         <v>100.2</v>
@@ -4183,7 +4123,7 @@
         <v>2019</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C190" s="7">
         <v>100.2</v>
@@ -4197,7 +4137,7 @@
         <v>2019</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C191" s="7">
         <v>100.2</v>
@@ -4211,7 +4151,7 @@
         <v>2019</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C192" s="7">
         <v>99.5</v>
@@ -4225,7 +4165,7 @@
         <v>2019</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C193" s="7">
         <v>100</v>
@@ -4239,7 +4179,7 @@
         <v>2020</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C194" s="7">
         <v>99.8</v>
@@ -4253,7 +4193,7 @@
         <v>2020</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C195" s="7">
         <v>100.1</v>
@@ -4267,7 +4207,7 @@
         <v>2020</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C196" s="7">
         <v>100.3</v>
@@ -4281,7 +4221,7 @@
         <v>2020</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C197" s="7">
         <v>100.4</v>
@@ -4295,7 +4235,7 @@
         <v>2020</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C198" s="7">
         <v>100.4</v>
@@ -4309,7 +4249,7 @@
         <v>2020</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C199" s="7">
         <v>100.5</v>
@@ -4323,7 +4263,7 @@
         <v>2020</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C200" s="7">
         <v>99.7</v>
@@ -4337,7 +4277,7 @@
         <v>2020</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C201" s="7">
         <v>99.7</v>
@@ -4351,7 +4291,7 @@
         <v>2020</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C202" s="7">
         <v>99.7</v>
@@ -4365,7 +4305,7 @@
         <v>2020</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C203" s="7">
         <v>99.9</v>
@@ -4379,7 +4319,7 @@
         <v>2020</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C204" s="7">
         <v>99.7</v>
@@ -4393,7 +4333,7 @@
         <v>2020</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C205" s="7">
         <v>99.8</v>
@@ -4407,7 +4347,7 @@
         <v>2021</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C206" s="7">
         <v>101</v>
@@ -4421,7 +4361,7 @@
         <v>2021</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C207" s="7">
         <v>101.6</v>
@@ -4435,7 +4375,7 @@
         <v>2021</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C208" s="7">
         <v>102.1</v>
@@ -4449,7 +4389,7 @@
         <v>2021</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C209" s="7">
         <v>102.4</v>
@@ -4463,7 +4403,7 @@
         <v>2021</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C210" s="7">
         <v>102.6</v>
@@ -4477,7 +4417,7 @@
         <v>2021</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C211" s="7">
         <v>102.9</v>
@@ -4491,7 +4431,7 @@
         <v>2021</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C212" s="7">
         <v>103.4</v>
@@ -4505,7 +4445,7 @@
         <v>2021</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C213" s="7">
         <v>103.5</v>
@@ -4519,7 +4459,7 @@
         <v>2021</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C214" s="7">
         <v>103.8</v>
@@ -4533,7 +4473,7 @@
         <v>2021</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C215" s="7">
         <v>104.3</v>
@@ -4547,7 +4487,7 @@
         <v>2021</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C216" s="7">
         <v>104.5</v>
@@ -4561,7 +4501,7 @@
         <v>2021</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C217" s="7">
         <v>104.7</v>
@@ -4575,7 +4515,7 @@
         <v>2022</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C218" s="7">
         <v>105.2</v>
@@ -4589,7 +4529,7 @@
         <v>2022</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C219" s="7">
         <v>106</v>
@@ -4603,7 +4543,7 @@
         <v>2022</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C220" s="7">
         <v>108.1</v>
@@ -4617,7 +4557,7 @@
         <v>2022</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C221" s="7">
         <v>108.8</v>
@@ -4631,7 +4571,7 @@
         <v>2022</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C222" s="7">
         <v>109.8</v>
@@ -4645,7 +4585,7 @@
         <v>2022</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C223" s="7">
         <v>109.8</v>
@@ -4659,7 +4599,7 @@
         <v>2022</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C224" s="7">
         <v>110.3</v>
@@ -4673,7 +4613,7 @@
         <v>2022</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C225" s="7">
         <v>110.7</v>
@@ -4687,7 +4627,7 @@
         <v>2022</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C226" s="7">
         <v>112.7</v>
@@ -4701,7 +4641,7 @@
         <v>2022</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C227" s="7">
         <v>113.5</v>
@@ -4715,7 +4655,7 @@
         <v>2022</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C228" s="7">
         <v>113.7</v>
@@ -4729,7 +4669,7 @@
         <v>2022</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C229" s="7">
         <v>113.2</v>
